--- a/Kode/Server2/Logs/lora_node2/2020-06-08.xlsx
+++ b/Kode/Server2/Logs/lora_node2/2020-06-08.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F883"/>
+  <dimension ref="A1:F1136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18026,6 +18026,5066 @@
         <v>71.25005999999999</v>
       </c>
     </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>162</v>
+      </c>
+      <c r="B884" s="1" t="n">
+        <v>0.7976425655787037</v>
+      </c>
+      <c r="C884" t="n">
+        <v>96</v>
+      </c>
+      <c r="D884" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E884" t="n">
+        <v>29.685</v>
+      </c>
+      <c r="F884" t="n">
+        <v>69.46289999999999</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>163</v>
+      </c>
+      <c r="B885" s="1" t="n">
+        <v>0.7983389354976852</v>
+      </c>
+      <c r="C885" t="n">
+        <v>96</v>
+      </c>
+      <c r="D885" t="n">
+        <v>2.312</v>
+      </c>
+      <c r="E885" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="F885" t="n">
+        <v>68.11151999999998</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>164</v>
+      </c>
+      <c r="B886" s="1" t="n">
+        <v>0.7990305539699073</v>
+      </c>
+      <c r="C886" t="n">
+        <v>96</v>
+      </c>
+      <c r="D886" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E886" t="n">
+        <v>30.855</v>
+      </c>
+      <c r="F886" t="n">
+        <v>70.96650000000001</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>165</v>
+      </c>
+      <c r="B887" s="1" t="n">
+        <v>0.7997255822222221</v>
+      </c>
+      <c r="C887" t="n">
+        <v>96</v>
+      </c>
+      <c r="D887" t="n">
+        <v>2.308</v>
+      </c>
+      <c r="E887" t="n">
+        <v>33.06</v>
+      </c>
+      <c r="F887" t="n">
+        <v>76.30248</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>167</v>
+      </c>
+      <c r="B888" s="1" t="n">
+        <v>0.8011136749768519</v>
+      </c>
+      <c r="C888" t="n">
+        <v>96</v>
+      </c>
+      <c r="D888" t="n">
+        <v>2.316</v>
+      </c>
+      <c r="E888" t="n">
+        <v>34.095</v>
+      </c>
+      <c r="F888" t="n">
+        <v>78.96401999999999</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>169</v>
+      </c>
+      <c r="B889" s="1" t="n">
+        <v>0.8025022037499999</v>
+      </c>
+      <c r="C889" t="n">
+        <v>96</v>
+      </c>
+      <c r="D889" t="n">
+        <v>2.108</v>
+      </c>
+      <c r="E889" t="n">
+        <v>36.585</v>
+      </c>
+      <c r="F889" t="n">
+        <v>77.12118000000001</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>170</v>
+      </c>
+      <c r="B890" s="1" t="n">
+        <v>0.8031978738657408</v>
+      </c>
+      <c r="C890" t="n">
+        <v>96</v>
+      </c>
+      <c r="D890" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="E890" t="n">
+        <v>37.725</v>
+      </c>
+      <c r="F890" t="n">
+        <v>84.2022</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>171</v>
+      </c>
+      <c r="B891" s="1" t="n">
+        <v>0.803890490324074</v>
+      </c>
+      <c r="C891" t="n">
+        <v>96</v>
+      </c>
+      <c r="D891" t="n">
+        <v>2.084</v>
+      </c>
+      <c r="E891" t="n">
+        <v>36.15</v>
+      </c>
+      <c r="F891" t="n">
+        <v>75.3366</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>172</v>
+      </c>
+      <c r="B892" s="1" t="n">
+        <v>0.8045840017592591</v>
+      </c>
+      <c r="C892" t="n">
+        <v>96</v>
+      </c>
+      <c r="D892" t="n">
+        <v>2.264</v>
+      </c>
+      <c r="E892" t="n">
+        <v>34.665</v>
+      </c>
+      <c r="F892" t="n">
+        <v>78.48156</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>173</v>
+      </c>
+      <c r="B893" s="1" t="n">
+        <v>0.8052782415162036</v>
+      </c>
+      <c r="C893" t="n">
+        <v>96</v>
+      </c>
+      <c r="D893" t="n">
+        <v>2.264</v>
+      </c>
+      <c r="E893" t="n">
+        <v>33.87</v>
+      </c>
+      <c r="F893" t="n">
+        <v>76.68168</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>174</v>
+      </c>
+      <c r="B894" s="1" t="n">
+        <v>0.8059713015972222</v>
+      </c>
+      <c r="C894" t="n">
+        <v>96</v>
+      </c>
+      <c r="D894" t="n">
+        <v>2.304</v>
+      </c>
+      <c r="E894" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="F894" t="n">
+        <v>74.71872</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>175</v>
+      </c>
+      <c r="B895" s="1" t="n">
+        <v>0.8066672822685186</v>
+      </c>
+      <c r="C895" t="n">
+        <v>96</v>
+      </c>
+      <c r="D895" t="n">
+        <v>2.296</v>
+      </c>
+      <c r="E895" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="F895" t="n">
+        <v>72.04848000000001</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>177</v>
+      </c>
+      <c r="B896" s="1" t="n">
+        <v>0.8080543574537037</v>
+      </c>
+      <c r="C896" t="n">
+        <v>96</v>
+      </c>
+      <c r="D896" t="n">
+        <v>2.312</v>
+      </c>
+      <c r="E896" t="n">
+        <v>31.095</v>
+      </c>
+      <c r="F896" t="n">
+        <v>71.89164</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>178</v>
+      </c>
+      <c r="B897" s="1" t="n">
+        <v>0.8087484254398148</v>
+      </c>
+      <c r="C897" t="n">
+        <v>96</v>
+      </c>
+      <c r="D897" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E897" t="n">
+        <v>31.035</v>
+      </c>
+      <c r="F897" t="n">
+        <v>70.13910000000001</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>179</v>
+      </c>
+      <c r="B898" s="1" t="n">
+        <v>0.8094425697453703</v>
+      </c>
+      <c r="C898" t="n">
+        <v>96</v>
+      </c>
+      <c r="D898" t="n">
+        <v>2.316</v>
+      </c>
+      <c r="E898" t="n">
+        <v>31.35</v>
+      </c>
+      <c r="F898" t="n">
+        <v>72.60659999999999</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>180</v>
+      </c>
+      <c r="B899" s="1" t="n">
+        <v>0.8101368626041666</v>
+      </c>
+      <c r="C899" t="n">
+        <v>96</v>
+      </c>
+      <c r="D899" t="n">
+        <v>2.316</v>
+      </c>
+      <c r="E899" t="n">
+        <v>31.845</v>
+      </c>
+      <c r="F899" t="n">
+        <v>73.75301999999999</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>181</v>
+      </c>
+      <c r="B900" s="1" t="n">
+        <v>0.8108308795023149</v>
+      </c>
+      <c r="C900" t="n">
+        <v>96</v>
+      </c>
+      <c r="D900" t="n">
+        <v>2.288</v>
+      </c>
+      <c r="E900" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="F900" t="n">
+        <v>75.91584</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>182</v>
+      </c>
+      <c r="B901" s="1" t="n">
+        <v>0.8115264739467593</v>
+      </c>
+      <c r="C901" t="n">
+        <v>96</v>
+      </c>
+      <c r="D901" t="n">
+        <v>4.664</v>
+      </c>
+      <c r="E901" t="n">
+        <v>33.63</v>
+      </c>
+      <c r="F901" t="n">
+        <v>156.85032</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>183</v>
+      </c>
+      <c r="B902" s="1" t="n">
+        <v>0.8122193949884259</v>
+      </c>
+      <c r="C902" t="n">
+        <v>96</v>
+      </c>
+      <c r="D902" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E902" t="n">
+        <v>28.815</v>
+      </c>
+      <c r="F902" t="n">
+        <v>155.0247</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>184</v>
+      </c>
+      <c r="B903" s="1" t="n">
+        <v>0.8129149983564814</v>
+      </c>
+      <c r="C903" t="n">
+        <v>96</v>
+      </c>
+      <c r="D903" t="n">
+        <v>4.916</v>
+      </c>
+      <c r="E903" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="F903" t="n">
+        <v>146.89008</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>185</v>
+      </c>
+      <c r="B904" s="1" t="n">
+        <v>0.8136079711921297</v>
+      </c>
+      <c r="C904" t="n">
+        <v>96</v>
+      </c>
+      <c r="D904" t="n">
+        <v>4.484</v>
+      </c>
+      <c r="E904" t="n">
+        <v>30.015</v>
+      </c>
+      <c r="F904" t="n">
+        <v>134.58726</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>186</v>
+      </c>
+      <c r="B905" s="1" t="n">
+        <v>0.8143013800810185</v>
+      </c>
+      <c r="C905" t="n">
+        <v>96</v>
+      </c>
+      <c r="D905" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="E905" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="F905" t="n">
+        <v>123.48936</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>187</v>
+      </c>
+      <c r="B906" s="1" t="n">
+        <v>0.8149962097106481</v>
+      </c>
+      <c r="C906" t="n">
+        <v>96</v>
+      </c>
+      <c r="D906" t="n">
+        <v>3.764</v>
+      </c>
+      <c r="E906" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="F906" t="n">
+        <v>113.4846</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>189</v>
+      </c>
+      <c r="B907" s="1" t="n">
+        <v>0.8163855368055556</v>
+      </c>
+      <c r="C907" t="n">
+        <v>96</v>
+      </c>
+      <c r="D907" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="E907" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="F907" t="n">
+        <v>94.86936</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>191</v>
+      </c>
+      <c r="B908" s="1" t="n">
+        <v>0.8177727800694443</v>
+      </c>
+      <c r="C908" t="n">
+        <v>96</v>
+      </c>
+      <c r="D908" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E908" t="n">
+        <v>30.81</v>
+      </c>
+      <c r="F908" t="n">
+        <v>81.33840000000001</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>192</v>
+      </c>
+      <c r="B909" s="1" t="n">
+        <v>0.8184658066550926</v>
+      </c>
+      <c r="C909" t="n">
+        <v>96</v>
+      </c>
+      <c r="D909" t="n">
+        <v>2.396</v>
+      </c>
+      <c r="E909" t="n">
+        <v>31.485</v>
+      </c>
+      <c r="F909" t="n">
+        <v>75.43805999999999</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>193</v>
+      </c>
+      <c r="B910" s="1" t="n">
+        <v>0.8191605764351851</v>
+      </c>
+      <c r="C910" t="n">
+        <v>96</v>
+      </c>
+      <c r="D910" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E910" t="n">
+        <v>30.81</v>
+      </c>
+      <c r="F910" t="n">
+        <v>64.0848</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>194</v>
+      </c>
+      <c r="B911" s="1" t="n">
+        <v>0.8198547103472222</v>
+      </c>
+      <c r="C911" t="n">
+        <v>96</v>
+      </c>
+      <c r="D911" t="n">
+        <v>2.164</v>
+      </c>
+      <c r="E911" t="n">
+        <v>30.105</v>
+      </c>
+      <c r="F911" t="n">
+        <v>65.14722</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>195</v>
+      </c>
+      <c r="B912" s="1" t="n">
+        <v>0.8205522190509259</v>
+      </c>
+      <c r="C912" t="n">
+        <v>96</v>
+      </c>
+      <c r="D912" t="n">
+        <v>2.044</v>
+      </c>
+      <c r="E912" t="n">
+        <v>28.875</v>
+      </c>
+      <c r="F912" t="n">
+        <v>59.0205</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>196</v>
+      </c>
+      <c r="B913" s="1" t="n">
+        <v>0.8212422328125001</v>
+      </c>
+      <c r="C913" t="n">
+        <v>96</v>
+      </c>
+      <c r="D913" t="n">
+        <v>2.164</v>
+      </c>
+      <c r="E913" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="F913" t="n">
+        <v>61.80384</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>197</v>
+      </c>
+      <c r="B914" s="1" t="n">
+        <v>0.8219381673263889</v>
+      </c>
+      <c r="C914" t="n">
+        <v>96</v>
+      </c>
+      <c r="D914" t="n">
+        <v>2.088</v>
+      </c>
+      <c r="E914" t="n">
+        <v>28.605</v>
+      </c>
+      <c r="F914" t="n">
+        <v>59.72724</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>198</v>
+      </c>
+      <c r="B915" s="1" t="n">
+        <v>0.8226312285069445</v>
+      </c>
+      <c r="C915" t="n">
+        <v>96</v>
+      </c>
+      <c r="D915" t="n">
+        <v>2.152</v>
+      </c>
+      <c r="E915" t="n">
+        <v>33.495</v>
+      </c>
+      <c r="F915" t="n">
+        <v>72.08123999999999</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>199</v>
+      </c>
+      <c r="B916" s="1" t="n">
+        <v>0.8233247274305555</v>
+      </c>
+      <c r="C916" t="n">
+        <v>96</v>
+      </c>
+      <c r="D916" t="n">
+        <v>2.332</v>
+      </c>
+      <c r="E916" t="n">
+        <v>31.32</v>
+      </c>
+      <c r="F916" t="n">
+        <v>73.03824</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>200</v>
+      </c>
+      <c r="B917" s="1" t="n">
+        <v>0.8240183560069444</v>
+      </c>
+      <c r="C917" t="n">
+        <v>96</v>
+      </c>
+      <c r="D917" t="n">
+        <v>2.372</v>
+      </c>
+      <c r="E917" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="F917" t="n">
+        <v>71.72927999999999</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>201</v>
+      </c>
+      <c r="B918" s="1" t="n">
+        <v>0.8247144296180556</v>
+      </c>
+      <c r="C918" t="n">
+        <v>96</v>
+      </c>
+      <c r="D918" t="n">
+        <v>2.372</v>
+      </c>
+      <c r="E918" t="n">
+        <v>30.375</v>
+      </c>
+      <c r="F918" t="n">
+        <v>72.04949999999999</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>202</v>
+      </c>
+      <c r="B919" s="1" t="n">
+        <v>0.825407963425926</v>
+      </c>
+      <c r="C919" t="n">
+        <v>96</v>
+      </c>
+      <c r="D919" t="n">
+        <v>2.312</v>
+      </c>
+      <c r="E919" t="n">
+        <v>31.32</v>
+      </c>
+      <c r="F919" t="n">
+        <v>72.41184</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>203</v>
+      </c>
+      <c r="B920" s="1" t="n">
+        <v>0.8261029086805556</v>
+      </c>
+      <c r="C920" t="n">
+        <v>96</v>
+      </c>
+      <c r="D920" t="n">
+        <v>2.324</v>
+      </c>
+      <c r="E920" t="n">
+        <v>29.685</v>
+      </c>
+      <c r="F920" t="n">
+        <v>68.98793999999999</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>204</v>
+      </c>
+      <c r="B921" s="1" t="n">
+        <v>0.8267969504745371</v>
+      </c>
+      <c r="C921" t="n">
+        <v>96</v>
+      </c>
+      <c r="D921" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="E921" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="F921" t="n">
+        <v>67.19975999999998</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>206</v>
+      </c>
+      <c r="B922" s="1" t="n">
+        <v>0.8281844783333333</v>
+      </c>
+      <c r="C922" t="n">
+        <v>96</v>
+      </c>
+      <c r="D922" t="n">
+        <v>2.328</v>
+      </c>
+      <c r="E922" t="n">
+        <v>29.565</v>
+      </c>
+      <c r="F922" t="n">
+        <v>68.82731999999999</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>207</v>
+      </c>
+      <c r="B923" s="1" t="n">
+        <v>0.8288778711458333</v>
+      </c>
+      <c r="C923" t="n">
+        <v>96</v>
+      </c>
+      <c r="D923" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="E923" t="n">
+        <v>29.19</v>
+      </c>
+      <c r="F923" t="n">
+        <v>68.53811999999999</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>208</v>
+      </c>
+      <c r="B924" s="1" t="n">
+        <v>0.8295714686921297</v>
+      </c>
+      <c r="C924" t="n">
+        <v>96</v>
+      </c>
+      <c r="D924" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E924" t="n">
+        <v>28.77</v>
+      </c>
+      <c r="F924" t="n">
+        <v>68.4726</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>209</v>
+      </c>
+      <c r="B925" s="1" t="n">
+        <v>0.8302657189236111</v>
+      </c>
+      <c r="C925" t="n">
+        <v>96</v>
+      </c>
+      <c r="D925" t="n">
+        <v>2.324</v>
+      </c>
+      <c r="E925" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="F925" t="n">
+        <v>67.69811999999999</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>210</v>
+      </c>
+      <c r="B926" s="1" t="n">
+        <v>0.8309598792476852</v>
+      </c>
+      <c r="C926" t="n">
+        <v>96</v>
+      </c>
+      <c r="D926" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E926" t="n">
+        <v>33.705</v>
+      </c>
+      <c r="F926" t="n">
+        <v>84.26249999999999</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>211</v>
+      </c>
+      <c r="B927" s="1" t="n">
+        <v>0.8316546021875</v>
+      </c>
+      <c r="C927" t="n">
+        <v>96</v>
+      </c>
+      <c r="D927" t="n">
+        <v>2.212</v>
+      </c>
+      <c r="E927" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="F927" t="n">
+        <v>134.7108</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>212</v>
+      </c>
+      <c r="B928" s="1" t="n">
+        <v>0.8323488046296296</v>
+      </c>
+      <c r="C928" t="n">
+        <v>96</v>
+      </c>
+      <c r="D928" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E928" t="n">
+        <v>59.31</v>
+      </c>
+      <c r="F928" t="n">
+        <v>130.482</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>213</v>
+      </c>
+      <c r="B929" s="1" t="n">
+        <v>0.8330416460069445</v>
+      </c>
+      <c r="C929" t="n">
+        <v>96</v>
+      </c>
+      <c r="D929" t="n">
+        <v>2.296</v>
+      </c>
+      <c r="E929" t="n">
+        <v>30.855</v>
+      </c>
+      <c r="F929" t="n">
+        <v>70.84308000000001</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>214</v>
+      </c>
+      <c r="B930" s="1" t="n">
+        <v>0.8337361719791667</v>
+      </c>
+      <c r="C930" t="n">
+        <v>96</v>
+      </c>
+      <c r="D930" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E930" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F930" t="n">
+        <v>58.464</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>215</v>
+      </c>
+      <c r="B931" s="1" t="n">
+        <v>0.8344305128819445</v>
+      </c>
+      <c r="C931" t="n">
+        <v>96</v>
+      </c>
+      <c r="D931" t="n">
+        <v>2.044</v>
+      </c>
+      <c r="E931" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="F931" t="n">
+        <v>52.61255999999999</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>216</v>
+      </c>
+      <c r="B932" s="1" t="n">
+        <v>0.8351274397916667</v>
+      </c>
+      <c r="C932" t="n">
+        <v>96</v>
+      </c>
+      <c r="D932" t="n">
+        <v>2.136</v>
+      </c>
+      <c r="E932" t="n">
+        <v>25.995</v>
+      </c>
+      <c r="F932" t="n">
+        <v>55.52532</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>217</v>
+      </c>
+      <c r="B933" s="1" t="n">
+        <v>0.8358188499884259</v>
+      </c>
+      <c r="C933" t="n">
+        <v>96</v>
+      </c>
+      <c r="D933" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="E933" t="n">
+        <v>26.055</v>
+      </c>
+      <c r="F933" t="n">
+        <v>54.81972</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>218</v>
+      </c>
+      <c r="B934" s="1" t="n">
+        <v>0.836515881574074</v>
+      </c>
+      <c r="C934" t="n">
+        <v>96</v>
+      </c>
+      <c r="D934" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="E934" t="n">
+        <v>25.005</v>
+      </c>
+      <c r="F934" t="n">
+        <v>50.71014</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>219</v>
+      </c>
+      <c r="B935" s="1" t="n">
+        <v>0.8372068179398149</v>
+      </c>
+      <c r="C935" t="n">
+        <v>96</v>
+      </c>
+      <c r="D935" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E935" t="n">
+        <v>24.285</v>
+      </c>
+      <c r="F935" t="n">
+        <v>46.82148</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>220</v>
+      </c>
+      <c r="B936" s="1" t="n">
+        <v>0.8379014134490741</v>
+      </c>
+      <c r="C936" t="n">
+        <v>96</v>
+      </c>
+      <c r="D936" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="E936" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="F936" t="n">
+        <v>44.40744</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>221</v>
+      </c>
+      <c r="B937" s="1" t="n">
+        <v>0.8385986883101852</v>
+      </c>
+      <c r="C937" t="n">
+        <v>96</v>
+      </c>
+      <c r="D937" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="E937" t="n">
+        <v>23.745</v>
+      </c>
+      <c r="F937" t="n">
+        <v>43.78578</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>222</v>
+      </c>
+      <c r="B938" s="1" t="n">
+        <v>0.8392931604282408</v>
+      </c>
+      <c r="C938" t="n">
+        <v>96</v>
+      </c>
+      <c r="D938" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E938" t="n">
+        <v>27.615</v>
+      </c>
+      <c r="F938" t="n">
+        <v>55.7823</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>223</v>
+      </c>
+      <c r="B939" s="1" t="n">
+        <v>0.8399831727893518</v>
+      </c>
+      <c r="C939" t="n">
+        <v>96</v>
+      </c>
+      <c r="D939" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E939" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="F939" t="n">
+        <v>73.4496</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>224</v>
+      </c>
+      <c r="B940" s="1" t="n">
+        <v>0.8406780600694445</v>
+      </c>
+      <c r="C940" t="n">
+        <v>96</v>
+      </c>
+      <c r="D940" t="n">
+        <v>5.188</v>
+      </c>
+      <c r="E940" t="n">
+        <v>35.19</v>
+      </c>
+      <c r="F940" t="n">
+        <v>182.56572</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>225</v>
+      </c>
+      <c r="B941" s="1" t="n">
+        <v>0.841371120162037</v>
+      </c>
+      <c r="C941" t="n">
+        <v>96</v>
+      </c>
+      <c r="D941" t="n">
+        <v>2.244</v>
+      </c>
+      <c r="E941" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="F941" t="n">
+        <v>93.64212000000001</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>226</v>
+      </c>
+      <c r="B942" s="1" t="n">
+        <v>0.8420656711921297</v>
+      </c>
+      <c r="C942" t="n">
+        <v>96</v>
+      </c>
+      <c r="D942" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E942" t="n">
+        <v>50.31</v>
+      </c>
+      <c r="F942" t="n">
+        <v>110.27952</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>227</v>
+      </c>
+      <c r="B943" s="1" t="n">
+        <v>0.8427616988773148</v>
+      </c>
+      <c r="C943" t="n">
+        <v>96</v>
+      </c>
+      <c r="D943" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E943" t="n">
+        <v>70.83</v>
+      </c>
+      <c r="F943" t="n">
+        <v>156.10932</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>228</v>
+      </c>
+      <c r="B944" s="1" t="n">
+        <v>0.8434551394328703</v>
+      </c>
+      <c r="C944" t="n">
+        <v>96</v>
+      </c>
+      <c r="D944" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="E944" t="n">
+        <v>87.84</v>
+      </c>
+      <c r="F944" t="n">
+        <v>194.65344</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>231</v>
+      </c>
+      <c r="B945" s="1" t="n">
+        <v>0.8455367015162036</v>
+      </c>
+      <c r="C945" t="n">
+        <v>96</v>
+      </c>
+      <c r="D945" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="E945" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F945" t="n">
+        <v>73.77119999999999</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>232</v>
+      </c>
+      <c r="B946" s="1" t="n">
+        <v>0.8462297163773148</v>
+      </c>
+      <c r="C946" t="n">
+        <v>96</v>
+      </c>
+      <c r="D946" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="E946" t="n">
+        <v>50.37</v>
+      </c>
+      <c r="F946" t="n">
+        <v>113.63472</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>233</v>
+      </c>
+      <c r="B947" s="1" t="n">
+        <v>0.8469250513310186</v>
+      </c>
+      <c r="C947" t="n">
+        <v>96</v>
+      </c>
+      <c r="D947" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E947" t="n">
+        <v>86.145</v>
+      </c>
+      <c r="F947" t="n">
+        <v>191.2419</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>235</v>
+      </c>
+      <c r="B948" s="1" t="n">
+        <v>0.8483131804398149</v>
+      </c>
+      <c r="C948" t="n">
+        <v>96</v>
+      </c>
+      <c r="D948" t="n">
+        <v>2.244</v>
+      </c>
+      <c r="E948" t="n">
+        <v>46.05</v>
+      </c>
+      <c r="F948" t="n">
+        <v>103.3362</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>236</v>
+      </c>
+      <c r="B949" s="1" t="n">
+        <v>0.8490066334143519</v>
+      </c>
+      <c r="C949" t="n">
+        <v>96</v>
+      </c>
+      <c r="D949" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="E949" t="n">
+        <v>40.95</v>
+      </c>
+      <c r="F949" t="n">
+        <v>92.3832</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>237</v>
+      </c>
+      <c r="B950" s="1" t="n">
+        <v>0.8497005471875001</v>
+      </c>
+      <c r="C950" t="n">
+        <v>96</v>
+      </c>
+      <c r="D950" t="n">
+        <v>2.312</v>
+      </c>
+      <c r="E950" t="n">
+        <v>31.605</v>
+      </c>
+      <c r="F950" t="n">
+        <v>73.07075999999999</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>238</v>
+      </c>
+      <c r="B951" s="1" t="n">
+        <v>0.8503945545833332</v>
+      </c>
+      <c r="C951" t="n">
+        <v>96</v>
+      </c>
+      <c r="D951" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="E951" t="n">
+        <v>32.325</v>
+      </c>
+      <c r="F951" t="n">
+        <v>76.54559999999999</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>239</v>
+      </c>
+      <c r="B952" s="1" t="n">
+        <v>0.8510888492476851</v>
+      </c>
+      <c r="C952" t="n">
+        <v>96</v>
+      </c>
+      <c r="D952" t="n">
+        <v>5.132</v>
+      </c>
+      <c r="E952" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="F952" t="n">
+        <v>194.14356</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>240</v>
+      </c>
+      <c r="B953" s="1" t="n">
+        <v>0.8517852225347222</v>
+      </c>
+      <c r="C953" t="n">
+        <v>96</v>
+      </c>
+      <c r="D953" t="n">
+        <v>5.972</v>
+      </c>
+      <c r="E953" t="n">
+        <v>30.99</v>
+      </c>
+      <c r="F953" t="n">
+        <v>185.07228</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>241</v>
+      </c>
+      <c r="B954" s="1" t="n">
+        <v>0.8524766444212963</v>
+      </c>
+      <c r="C954" t="n">
+        <v>96</v>
+      </c>
+      <c r="D954" t="n">
+        <v>6.256</v>
+      </c>
+      <c r="E954" t="n">
+        <v>35.025</v>
+      </c>
+      <c r="F954" t="n">
+        <v>219.1164</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>242</v>
+      </c>
+      <c r="B955" s="1" t="n">
+        <v>0.8531715514930557</v>
+      </c>
+      <c r="C955" t="n">
+        <v>96</v>
+      </c>
+      <c r="D955" t="n">
+        <v>6.456</v>
+      </c>
+      <c r="E955" t="n">
+        <v>35.925</v>
+      </c>
+      <c r="F955" t="n">
+        <v>231.9318</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>244</v>
+      </c>
+      <c r="B956" s="1" t="n">
+        <v>0.8545611577314814</v>
+      </c>
+      <c r="C956" t="n">
+        <v>96</v>
+      </c>
+      <c r="D956" t="n">
+        <v>6.452</v>
+      </c>
+      <c r="E956" t="n">
+        <v>36.51</v>
+      </c>
+      <c r="F956" t="n">
+        <v>235.56252</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>245</v>
+      </c>
+      <c r="B957" s="1" t="n">
+        <v>0.8552534549537036</v>
+      </c>
+      <c r="C957" t="n">
+        <v>96</v>
+      </c>
+      <c r="D957" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="E957" t="n">
+        <v>35.895</v>
+      </c>
+      <c r="F957" t="n">
+        <v>235.18404</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>246</v>
+      </c>
+      <c r="B958" s="1" t="n">
+        <v>0.8559513669328704</v>
+      </c>
+      <c r="C958" t="n">
+        <v>96</v>
+      </c>
+      <c r="D958" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E958" t="n">
+        <v>26.415</v>
+      </c>
+      <c r="F958" t="n">
+        <v>148.9806</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>247</v>
+      </c>
+      <c r="B959" s="1" t="n">
+        <v>0.8566420954050926</v>
+      </c>
+      <c r="C959" t="n">
+        <v>96</v>
+      </c>
+      <c r="D959" t="n">
+        <v>6.392</v>
+      </c>
+      <c r="E959" t="n">
+        <v>37.575</v>
+      </c>
+      <c r="F959" t="n">
+        <v>240.1794</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>248</v>
+      </c>
+      <c r="B960" s="1" t="n">
+        <v>0.8573368519560186</v>
+      </c>
+      <c r="C960" t="n">
+        <v>96</v>
+      </c>
+      <c r="D960" t="n">
+        <v>6.548</v>
+      </c>
+      <c r="E960" t="n">
+        <v>36.21</v>
+      </c>
+      <c r="F960" t="n">
+        <v>237.10308</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>250</v>
+      </c>
+      <c r="B961" s="1" t="n">
+        <v>0.8587266935648148</v>
+      </c>
+      <c r="C961" t="n">
+        <v>96</v>
+      </c>
+      <c r="D961" t="n">
+        <v>6.488</v>
+      </c>
+      <c r="E961" t="n">
+        <v>36.39</v>
+      </c>
+      <c r="F961" t="n">
+        <v>236.09832</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>251</v>
+      </c>
+      <c r="B962" s="1" t="n">
+        <v>0.8594216016898147</v>
+      </c>
+      <c r="C962" t="n">
+        <v>96</v>
+      </c>
+      <c r="D962" t="n">
+        <v>6.468</v>
+      </c>
+      <c r="E962" t="n">
+        <v>36.54</v>
+      </c>
+      <c r="F962" t="n">
+        <v>236.34072</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>252</v>
+      </c>
+      <c r="B963" s="1" t="n">
+        <v>0.8601140850462963</v>
+      </c>
+      <c r="C963" t="n">
+        <v>96</v>
+      </c>
+      <c r="D963" t="n">
+        <v>6.288</v>
+      </c>
+      <c r="E963" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="F963" t="n">
+        <v>219.7656</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>253</v>
+      </c>
+      <c r="B964" s="1" t="n">
+        <v>0.8608063145717592</v>
+      </c>
+      <c r="C964" t="n">
+        <v>96</v>
+      </c>
+      <c r="D964" t="n">
+        <v>6.296</v>
+      </c>
+      <c r="E964" t="n">
+        <v>36.795</v>
+      </c>
+      <c r="F964" t="n">
+        <v>231.66132</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>254</v>
+      </c>
+      <c r="B965" s="1" t="n">
+        <v>0.8615001621064815</v>
+      </c>
+      <c r="C965" t="n">
+        <v>96</v>
+      </c>
+      <c r="D965" t="n">
+        <v>6.092000000000001</v>
+      </c>
+      <c r="E965" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F965" t="n">
+        <v>213.8292</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>0</v>
+      </c>
+      <c r="B966" s="1" t="n">
+        <v>0.862194331423611</v>
+      </c>
+      <c r="C966" t="n">
+        <v>96</v>
+      </c>
+      <c r="D966" t="n">
+        <v>6.308</v>
+      </c>
+      <c r="E966" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="F966" t="n">
+        <v>227.46648</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>1</v>
+      </c>
+      <c r="B967" s="1" t="n">
+        <v>0.8628889836342593</v>
+      </c>
+      <c r="C967" t="n">
+        <v>96</v>
+      </c>
+      <c r="D967" t="n">
+        <v>6.448</v>
+      </c>
+      <c r="E967" t="n">
+        <v>37.155</v>
+      </c>
+      <c r="F967" t="n">
+        <v>239.57544</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>2</v>
+      </c>
+      <c r="B968" s="1" t="n">
+        <v>0.8635826906597223</v>
+      </c>
+      <c r="C968" t="n">
+        <v>96</v>
+      </c>
+      <c r="D968" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="E968" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="F968" t="n">
+        <v>219.30048</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>3</v>
+      </c>
+      <c r="B969" s="1" t="n">
+        <v>0.8642763743865741</v>
+      </c>
+      <c r="C969" t="n">
+        <v>96</v>
+      </c>
+      <c r="D969" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="E969" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="F969" t="n">
+        <v>117.0864</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>4</v>
+      </c>
+      <c r="B970" s="1" t="n">
+        <v>0.864973753587963</v>
+      </c>
+      <c r="C970" t="n">
+        <v>96</v>
+      </c>
+      <c r="D970" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E970" t="n">
+        <v>36.735</v>
+      </c>
+      <c r="F970" t="n">
+        <v>79.78842</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>5</v>
+      </c>
+      <c r="B971" s="1" t="n">
+        <v>0.8656655399652778</v>
+      </c>
+      <c r="C971" t="n">
+        <v>96</v>
+      </c>
+      <c r="D971" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E971" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="F971" t="n">
+        <v>68.244</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>6</v>
+      </c>
+      <c r="B972" s="1" t="n">
+        <v>0.8663595232638889</v>
+      </c>
+      <c r="C972" t="n">
+        <v>96</v>
+      </c>
+      <c r="D972" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="E972" t="n">
+        <v>45.18</v>
+      </c>
+      <c r="F972" t="n">
+        <v>99.75744</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>7</v>
+      </c>
+      <c r="B973" s="1" t="n">
+        <v>0.8670598098032407</v>
+      </c>
+      <c r="C973" t="n">
+        <v>96</v>
+      </c>
+      <c r="D973" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E973" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="F973" t="n">
+        <v>63.12719999999999</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>8</v>
+      </c>
+      <c r="B974" s="1" t="n">
+        <v>0.8677518666319444</v>
+      </c>
+      <c r="C974" t="n">
+        <v>96</v>
+      </c>
+      <c r="D974" t="n">
+        <v>2.516</v>
+      </c>
+      <c r="E974" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="F974" t="n">
+        <v>65.06376</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>9</v>
+      </c>
+      <c r="B975" s="1" t="n">
+        <v>0.8684408637731482</v>
+      </c>
+      <c r="C975" t="n">
+        <v>96</v>
+      </c>
+      <c r="D975" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="E975" t="n">
+        <v>24.495</v>
+      </c>
+      <c r="F975" t="n">
+        <v>59.76779999999999</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>11</v>
+      </c>
+      <c r="B976" s="1" t="n">
+        <v>0.8698294081597223</v>
+      </c>
+      <c r="C976" t="n">
+        <v>96</v>
+      </c>
+      <c r="D976" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E976" t="n">
+        <v>24</v>
+      </c>
+      <c r="F976" t="n">
+        <v>52.896</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>12</v>
+      </c>
+      <c r="B977" s="1" t="n">
+        <v>0.8705231253125001</v>
+      </c>
+      <c r="C977" t="n">
+        <v>96</v>
+      </c>
+      <c r="D977" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E977" t="n">
+        <v>25.035</v>
+      </c>
+      <c r="F977" t="n">
+        <v>54.47616000000001</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>13</v>
+      </c>
+      <c r="B978" s="1" t="n">
+        <v>0.8712183212152778</v>
+      </c>
+      <c r="C978" t="n">
+        <v>96</v>
+      </c>
+      <c r="D978" t="n">
+        <v>2.228</v>
+      </c>
+      <c r="E978" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F978" t="n">
+        <v>60.8244</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>14</v>
+      </c>
+      <c r="B979" s="1" t="n">
+        <v>0.8719118070833333</v>
+      </c>
+      <c r="C979" t="n">
+        <v>96</v>
+      </c>
+      <c r="D979" t="n">
+        <v>2.116</v>
+      </c>
+      <c r="E979" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F979" t="n">
+        <v>55.2276</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>15</v>
+      </c>
+      <c r="B980" s="1" t="n">
+        <v>0.8726060205092593</v>
+      </c>
+      <c r="C980" t="n">
+        <v>96</v>
+      </c>
+      <c r="D980" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="E980" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="F980" t="n">
+        <v>51.06288</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>16</v>
+      </c>
+      <c r="B981" s="1" t="n">
+        <v>0.8733014816550927</v>
+      </c>
+      <c r="C981" t="n">
+        <v>96</v>
+      </c>
+      <c r="D981" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E981" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="F981" t="n">
+        <v>49.7448</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>17</v>
+      </c>
+      <c r="B982" s="1" t="n">
+        <v>0.8740005569675926</v>
+      </c>
+      <c r="C982" t="n">
+        <v>96</v>
+      </c>
+      <c r="D982" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E982" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="F982" t="n">
+        <v>51.9792</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>18</v>
+      </c>
+      <c r="B983" s="1" t="n">
+        <v>0.8746879375578703</v>
+      </c>
+      <c r="C983" t="n">
+        <v>96</v>
+      </c>
+      <c r="D983" t="n">
+        <v>2.228</v>
+      </c>
+      <c r="E983" t="n">
+        <v>34.32</v>
+      </c>
+      <c r="F983" t="n">
+        <v>76.46496</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>20</v>
+      </c>
+      <c r="B984" s="1" t="n">
+        <v>0.8760777953472222</v>
+      </c>
+      <c r="C984" t="n">
+        <v>96</v>
+      </c>
+      <c r="D984" t="n">
+        <v>2.244</v>
+      </c>
+      <c r="E984" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="F984" t="n">
+        <v>75.86964000000002</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>21</v>
+      </c>
+      <c r="B985" s="1" t="n">
+        <v>0.8767706135185186</v>
+      </c>
+      <c r="C985" t="n">
+        <v>96</v>
+      </c>
+      <c r="D985" t="n">
+        <v>2.156</v>
+      </c>
+      <c r="E985" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="F985" t="n">
+        <v>54.78396</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>22</v>
+      </c>
+      <c r="B986" s="1" t="n">
+        <v>0.8774642171412036</v>
+      </c>
+      <c r="C986" t="n">
+        <v>96</v>
+      </c>
+      <c r="D986" t="n">
+        <v>2.164</v>
+      </c>
+      <c r="E986" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="F986" t="n">
+        <v>50.9622</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>23</v>
+      </c>
+      <c r="B987" s="1" t="n">
+        <v>0.8781610974884259</v>
+      </c>
+      <c r="C987" t="n">
+        <v>96</v>
+      </c>
+      <c r="D987" t="n">
+        <v>2.236</v>
+      </c>
+      <c r="E987" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="F987" t="n">
+        <v>50.44416</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>24</v>
+      </c>
+      <c r="B988" s="1" t="n">
+        <v>0.878853638425926</v>
+      </c>
+      <c r="C988" t="n">
+        <v>96</v>
+      </c>
+      <c r="D988" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="E988" t="n">
+        <v>21.615</v>
+      </c>
+      <c r="F988" t="n">
+        <v>49.19574</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>26</v>
+      </c>
+      <c r="B989" s="1" t="n">
+        <v>0.8802415807986111</v>
+      </c>
+      <c r="C989" t="n">
+        <v>96</v>
+      </c>
+      <c r="D989" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="E989" t="n">
+        <v>20.115</v>
+      </c>
+      <c r="F989" t="n">
+        <v>42.80472</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>31</v>
+      </c>
+      <c r="B990" s="1" t="n">
+        <v>0.883711438287037</v>
+      </c>
+      <c r="C990" t="n">
+        <v>96</v>
+      </c>
+      <c r="D990" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E990" t="n">
+        <v>17.745</v>
+      </c>
+      <c r="F990" t="n">
+        <v>24.1332</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>32</v>
+      </c>
+      <c r="B991" s="1" t="n">
+        <v>0.8844055703935185</v>
+      </c>
+      <c r="C991" t="n">
+        <v>96</v>
+      </c>
+      <c r="D991" t="n">
+        <v>1.228</v>
+      </c>
+      <c r="E991" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="F991" t="n">
+        <v>21.9198</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>33</v>
+      </c>
+      <c r="B992" s="1" t="n">
+        <v>0.8851002009143519</v>
+      </c>
+      <c r="C992" t="n">
+        <v>96</v>
+      </c>
+      <c r="D992" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="E992" t="n">
+        <v>17.865</v>
+      </c>
+      <c r="F992" t="n">
+        <v>19.58004</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>34</v>
+      </c>
+      <c r="B993" s="1" t="n">
+        <v>0.8857950391666667</v>
+      </c>
+      <c r="C993" t="n">
+        <v>96</v>
+      </c>
+      <c r="D993" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="E993" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="F993" t="n">
+        <v>17.33688</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>35</v>
+      </c>
+      <c r="B994" s="1" t="n">
+        <v>0.8864874174768519</v>
+      </c>
+      <c r="C994" t="n">
+        <v>96</v>
+      </c>
+      <c r="D994" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="E994" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="F994" t="n">
+        <v>15.2082</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>36</v>
+      </c>
+      <c r="B995" s="1" t="n">
+        <v>0.8871827169675927</v>
+      </c>
+      <c r="C995" t="n">
+        <v>96</v>
+      </c>
+      <c r="D995" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E995" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="F995" t="n">
+        <v>13.0758</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>37</v>
+      </c>
+      <c r="B996" s="1" t="n">
+        <v>0.887876111863426</v>
+      </c>
+      <c r="C996" t="n">
+        <v>96</v>
+      </c>
+      <c r="D996" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="E996" t="n">
+        <v>17.535</v>
+      </c>
+      <c r="F996" t="n">
+        <v>11.50296</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>38</v>
+      </c>
+      <c r="B997" s="1" t="n">
+        <v>0.888570522476852</v>
+      </c>
+      <c r="C997" t="n">
+        <v>96</v>
+      </c>
+      <c r="D997" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E997" t="n">
+        <v>17.535</v>
+      </c>
+      <c r="F997" t="n">
+        <v>10.521</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>39</v>
+      </c>
+      <c r="B998" s="1" t="n">
+        <v>0.8892649558333333</v>
+      </c>
+      <c r="C998" t="n">
+        <v>96</v>
+      </c>
+      <c r="D998" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E998" t="n">
+        <v>17.565</v>
+      </c>
+      <c r="F998" t="n">
+        <v>10.1877</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>40</v>
+      </c>
+      <c r="B999" s="1" t="n">
+        <v>0.8899594704166667</v>
+      </c>
+      <c r="C999" t="n">
+        <v>96</v>
+      </c>
+      <c r="D999" t="n">
+        <v>0.5680000000000001</v>
+      </c>
+      <c r="E999" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="F999" t="n">
+        <v>9.951360000000001</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>41</v>
+      </c>
+      <c r="B1000" s="1" t="n">
+        <v>0.8906565132407407</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>17.385</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>9.66606</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>42</v>
+      </c>
+      <c r="B1001" s="1" t="n">
+        <v>0.8913466761226853</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>17.265</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>9.530280000000001</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>44</v>
+      </c>
+      <c r="B1002" s="1" t="n">
+        <v>0.8927351994675926</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>17.265</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>9.461220000000001</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>45</v>
+      </c>
+      <c r="B1003" s="1" t="n">
+        <v>0.8934291480671296</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>9.828000000000001</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>46</v>
+      </c>
+      <c r="B1004" s="1" t="n">
+        <v>0.8941237306018519</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>0.5760000000000001</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>17.745</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>10.22112</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>47</v>
+      </c>
+      <c r="B1005" s="1" t="n">
+        <v>0.894817218113426</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>0.5720000000000001</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>10.09008</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>48</v>
+      </c>
+      <c r="B1006" s="1" t="n">
+        <v>0.8955112620254629</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>9.591000000000001</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>49</v>
+      </c>
+      <c r="B1007" s="1" t="n">
+        <v>0.8962052811458333</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>9.036960000000001</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>50</v>
+      </c>
+      <c r="B1008" s="1" t="n">
+        <v>0.8968994838078704</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>16.395</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>8.39424</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>51</v>
+      </c>
+      <c r="B1009" s="1" t="n">
+        <v>0.8975942159490741</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>7.72992</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>52</v>
+      </c>
+      <c r="B1010" s="1" t="n">
+        <v>0.8982888795717593</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>15.435</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>7.22358</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>53</v>
+      </c>
+      <c r="B1011" s="1" t="n">
+        <v>0.8989821935416668</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>15.195</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>6.928920000000001</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>56</v>
+      </c>
+      <c r="B1012" s="1" t="n">
+        <v>0.9010637884375001</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>14.385</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>6.09924</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>57</v>
+      </c>
+      <c r="B1013" s="1" t="n">
+        <v>0.9017592250000001</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>5.61156</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>58</v>
+      </c>
+      <c r="B1014" s="1" t="n">
+        <v>0.9024517435416667</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>13.335</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>5.12064</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>60</v>
+      </c>
+      <c r="B1015" s="1" t="n">
+        <v>0.9038438158796296</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>4.403519999999999</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>61</v>
+      </c>
+      <c r="B1016" s="1" t="n">
+        <v>0.9045355252546297</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>4.22088</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>62</v>
+      </c>
+      <c r="B1017" s="1" t="n">
+        <v>0.9052321277083333</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>4.032</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>63</v>
+      </c>
+      <c r="B1018" s="1" t="n">
+        <v>0.9059223810648148</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>11.655</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>3.77622</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>64</v>
+      </c>
+      <c r="B1019" s="1" t="n">
+        <v>0.906616736574074</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>11.355</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>3.58818</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>65</v>
+      </c>
+      <c r="B1020" s="1" t="n">
+        <v>0.9073126583449074</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>11.115</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>3.42342</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>66</v>
+      </c>
+      <c r="B1021" s="1" t="n">
+        <v>0.908007393599537</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>10.845</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>3.253499999999999</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>67</v>
+      </c>
+      <c r="B1022" s="1" t="n">
+        <v>0.9086992982175925</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>3.10104</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>68</v>
+      </c>
+      <c r="B1023" s="1" t="n">
+        <v>0.9093931081828703</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>3.024</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>69</v>
+      </c>
+      <c r="B1024" s="1" t="n">
+        <v>0.9100875062384259</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>2.96496</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>70</v>
+      </c>
+      <c r="B1025" s="1" t="n">
+        <v>0.9107821015972222</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>2.9394</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>71</v>
+      </c>
+      <c r="B1026" s="1" t="n">
+        <v>0.9114757510416667</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>10.215</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>2.8602</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>73</v>
+      </c>
+      <c r="B1027" s="1" t="n">
+        <v>0.912863936087963</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>2.58192</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>74</v>
+      </c>
+      <c r="B1028" s="1" t="n">
+        <v>0.9135582789699075</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>2.4804</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>75</v>
+      </c>
+      <c r="B1029" s="1" t="n">
+        <v>0.9142521704398149</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>9.465</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>2.42304</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>76</v>
+      </c>
+      <c r="B1030" s="1" t="n">
+        <v>0.914949628136574</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>9.525</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>2.4384</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>77</v>
+      </c>
+      <c r="B1031" s="1" t="n">
+        <v>0.9156403213773148</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>9.734999999999999</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>2.57004</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>78</v>
+      </c>
+      <c r="B1032" s="1" t="n">
+        <v>0.9163352976504628</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>2.4804</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>79</v>
+      </c>
+      <c r="B1033" s="1" t="n">
+        <v>0.9170311507175927</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>9.285</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>2.33982</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>81</v>
+      </c>
+      <c r="B1034" s="1" t="n">
+        <v>0.9184187130787037</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>2.06028</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>82</v>
+      </c>
+      <c r="B1035" s="1" t="n">
+        <v>0.9191105839351852</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>1.94256</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>83</v>
+      </c>
+      <c r="B1036" s="1" t="n">
+        <v>0.9198053290046297</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>1.94256</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>84</v>
+      </c>
+      <c r="B1037" s="1" t="n">
+        <v>0.9204997042476851</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>1.99752</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>85</v>
+      </c>
+      <c r="B1038" s="1" t="n">
+        <v>0.9211935953703704</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>2.06028</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>86</v>
+      </c>
+      <c r="B1039" s="1" t="n">
+        <v>0.9218894484606481</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>8.879999999999999</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>2.1312</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>88</v>
+      </c>
+      <c r="B1040" s="1" t="n">
+        <v>0.9232783710532407</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>9.254999999999999</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>2.33226</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>89</v>
+      </c>
+      <c r="B1041" s="1" t="n">
+        <v>0.9239694221990741</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>2.4192</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>90</v>
+      </c>
+      <c r="B1042" s="1" t="n">
+        <v>0.9246635326967593</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>2.496</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>93</v>
+      </c>
+      <c r="B1043" s="1" t="n">
+        <v>0.9267459423611111</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>9.209999999999999</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>2.32092</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>94</v>
+      </c>
+      <c r="B1044" s="1" t="n">
+        <v>0.9274401794097221</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>2.07444</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>95</v>
+      </c>
+      <c r="B1045" s="1" t="n">
+        <v>0.9281355714814814</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>8.385</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>1.87824</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>96</v>
+      </c>
+      <c r="B1046" s="1" t="n">
+        <v>0.9288281919212962</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>1.73016</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>98</v>
+      </c>
+      <c r="B1047" s="1" t="n">
+        <v>0.930216516875</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>1.54224</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>100</v>
+      </c>
+      <c r="B1048" s="1" t="n">
+        <v>0.9316045542361112</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>7.605</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>1.55142</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>101</v>
+      </c>
+      <c r="B1049" s="1" t="n">
+        <v>0.9322986753587963</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>1.55448</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>102</v>
+      </c>
+      <c r="B1050" s="1" t="n">
+        <v>0.9329934533217593</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>1.54224</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>103</v>
+      </c>
+      <c r="B1051" s="1" t="n">
+        <v>0.9336871244560185</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>7.455</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>1.491</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>105</v>
+      </c>
+      <c r="B1052" s="1" t="n">
+        <v>0.9350766176041666</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>1.28064</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>106</v>
+      </c>
+      <c r="B1053" s="1" t="n">
+        <v>0.9357692603587964</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>6.614999999999999</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>1.16424</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>107</v>
+      </c>
+      <c r="B1054" s="1" t="n">
+        <v>0.9364633257523148</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>6.315</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>1.06092</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>108</v>
+      </c>
+      <c r="B1055" s="1" t="n">
+        <v>0.9371579545949074</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>6.045</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>0.9672000000000001</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>109</v>
+      </c>
+      <c r="B1056" s="1" t="n">
+        <v>0.9378514747916666</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>5.865</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>0.9149400000000001</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>110</v>
+      </c>
+      <c r="B1057" s="1" t="n">
+        <v>0.9385460010532407</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>0.87096</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>111</v>
+      </c>
+      <c r="B1058" s="1" t="n">
+        <v>0.9392403758217592</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>0.82584</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>112</v>
+      </c>
+      <c r="B1059" s="1" t="n">
+        <v>0.9399340833912038</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>5.355</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>0.77112</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>113</v>
+      </c>
+      <c r="B1060" s="1" t="n">
+        <v>0.9406311266550926</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>0.7017600000000001</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>114</v>
+      </c>
+      <c r="B1061" s="1" t="n">
+        <v>0.9413228459722223</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>4.965</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>0.65538</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>115</v>
+      </c>
+      <c r="B1062" s="1" t="n">
+        <v>0.942016424525463</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>0.61824</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>116</v>
+      </c>
+      <c r="B1063" s="1" t="n">
+        <v>0.9427103031944445</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>4.635</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>0.5747399999999999</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>117</v>
+      </c>
+      <c r="B1064" s="1" t="n">
+        <v>0.943405521539352</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>0.5327999999999999</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>119</v>
+      </c>
+      <c r="B1065" s="1" t="n">
+        <v>0.9447926697337963</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>0.44064</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>120</v>
+      </c>
+      <c r="B1066" s="1" t="n">
+        <v>0.9454892739583334</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>121</v>
+      </c>
+      <c r="B1067" s="1" t="n">
+        <v>0.9461824960995371</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>0.33984</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>122</v>
+      </c>
+      <c r="B1068" s="1" t="n">
+        <v>0.9468747480092593</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>3.345</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>0.30774</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>123</v>
+      </c>
+      <c r="B1069" s="1" t="n">
+        <v>0.9475691472916666</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>0.27984</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>124</v>
+      </c>
+      <c r="B1070" s="1" t="n">
+        <v>0.9482634190277777</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>2.985</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>0.2388</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>125</v>
+      </c>
+      <c r="B1071" s="1" t="n">
+        <v>0.9489582791319444</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>0.21432</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>126</v>
+      </c>
+      <c r="B1072" s="1" t="n">
+        <v>0.9496517323263889</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>0.19224</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>127</v>
+      </c>
+      <c r="B1073" s="1" t="n">
+        <v>0.9503480822800926</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>0.1836</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>128</v>
+      </c>
+      <c r="B1074" s="1" t="n">
+        <v>0.9510401266435184</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>0.16524</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>129</v>
+      </c>
+      <c r="B1075" s="1" t="n">
+        <v>0.9517345830902778</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>2.325</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>0.1488</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>130</v>
+      </c>
+      <c r="B1076" s="1" t="n">
+        <v>0.9524269725347222</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>0.1314</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>131</v>
+      </c>
+      <c r="B1077" s="1" t="n">
+        <v>0.9531224567592592</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>0.1233</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>132</v>
+      </c>
+      <c r="B1078" s="1" t="n">
+        <v>0.9538189446180555</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>0.10836</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>133</v>
+      </c>
+      <c r="B1079" s="1" t="n">
+        <v>0.9545106175810185</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>0.09438000000000001</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>134</v>
+      </c>
+      <c r="B1080" s="1" t="n">
+        <v>0.9552042999768519</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>0.09048</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>135</v>
+      </c>
+      <c r="B1081" s="1" t="n">
+        <v>0.9558990796180555</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>0.08064</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>136</v>
+      </c>
+      <c r="B1082" s="1" t="n">
+        <v>0.9565933622106482</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>0.07776</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>137</v>
+      </c>
+      <c r="B1083" s="1" t="n">
+        <v>0.9572862393402777</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>0.07704</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>138</v>
+      </c>
+      <c r="B1084" s="1" t="n">
+        <v>0.9579800844328703</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>0.0693</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>140</v>
+      </c>
+      <c r="B1085" s="1" t="n">
+        <v>0.9593685605324074</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>0.06731999999999999</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>141</v>
+      </c>
+      <c r="B1086" s="1" t="n">
+        <v>0.9600665052662036</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>0.06534</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>142</v>
+      </c>
+      <c r="B1087" s="1" t="n">
+        <v>0.960760742037037</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>0.06401999999999999</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>143</v>
+      </c>
+      <c r="B1088" s="1" t="n">
+        <v>0.9614505800694444</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>0.06336</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>145</v>
+      </c>
+      <c r="B1089" s="1" t="n">
+        <v>0.9628384285300926</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>0.0546</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>146</v>
+      </c>
+      <c r="B1090" s="1" t="n">
+        <v>0.9635329648263888</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>1.335</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>0.0534</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>147</v>
+      </c>
+      <c r="B1091" s="1" t="n">
+        <v>0.9642299595023147</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>0.0522</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>148</v>
+      </c>
+      <c r="B1092" s="1" t="n">
+        <v>0.9649215866666667</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>0.04536</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>149</v>
+      </c>
+      <c r="B1093" s="1" t="n">
+        <v>0.9656156392476852</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>0.04428000000000001</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>150</v>
+      </c>
+      <c r="B1094" s="1" t="n">
+        <v>0.966311132986111</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>0.04158000000000001</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>151</v>
+      </c>
+      <c r="B1095" s="1" t="n">
+        <v>0.9670041007407407</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>0.04050000000000001</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>152</v>
+      </c>
+      <c r="B1096" s="1" t="n">
+        <v>0.9676988099305556</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>0.03834000000000001</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>153</v>
+      </c>
+      <c r="B1097" s="1" t="n">
+        <v>0.9683922042476851</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>0.03312</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>154</v>
+      </c>
+      <c r="B1098" s="1" t="n">
+        <v>0.9690875943518519</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>0.03168</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>155</v>
+      </c>
+      <c r="B1099" s="1" t="n">
+        <v>0.9697830070254629</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>0.03072</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>156</v>
+      </c>
+      <c r="B1100" s="1" t="n">
+        <v>0.9704743451736111</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>0.9149999999999999</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>0.02562</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>157</v>
+      </c>
+      <c r="B1101" s="1" t="n">
+        <v>0.9711681688541667</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>0.02478</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>158</v>
+      </c>
+      <c r="B1102" s="1" t="n">
+        <v>0.9718633988773149</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>0.02394</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>159</v>
+      </c>
+      <c r="B1103" s="1" t="n">
+        <v>0.9725572197685186</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>0.02352</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>160</v>
+      </c>
+      <c r="B1104" s="1" t="n">
+        <v>0.9732538919212963</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>0.7949999999999999</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>0.02226</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>161</v>
+      </c>
+      <c r="B1105" s="1" t="n">
+        <v>0.9739453235648149</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>0.02142</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>162</v>
+      </c>
+      <c r="B1106" s="1" t="n">
+        <v>0.9746397562615741</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>0.01764</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>163</v>
+      </c>
+      <c r="B1107" s="1" t="n">
+        <v>0.9753328371180556</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>0.01656</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>164</v>
+      </c>
+      <c r="B1108" s="1" t="n">
+        <v>0.9760282970486112</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>0.6749999999999999</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>0.0162</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>165</v>
+      </c>
+      <c r="B1109" s="1" t="n">
+        <v>0.9767215879166667</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>0.01476</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>166</v>
+      </c>
+      <c r="B1110" s="1" t="n">
+        <v>0.9774152139699074</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>0.0144</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>167</v>
+      </c>
+      <c r="B1111" s="1" t="n">
+        <v>0.9781100727662037</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>0.0114</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>168</v>
+      </c>
+      <c r="B1112" s="1" t="n">
+        <v>0.9788076229166666</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>0.5549999999999999</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>0.0111</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>169</v>
+      </c>
+      <c r="B1113" s="1" t="n">
+        <v>0.9795079887037036</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>0.0102</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>170</v>
+      </c>
+      <c r="B1114" s="1" t="n">
+        <v>0.9801909706249999</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>0.009900000000000001</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>171</v>
+      </c>
+      <c r="B1115" s="1" t="n">
+        <v>0.9808873538657407</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>172</v>
+      </c>
+      <c r="B1116" s="1" t="n">
+        <v>0.9815817742361111</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>173</v>
+      </c>
+      <c r="B1117" s="1" t="n">
+        <v>0.98227432875</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>174</v>
+      </c>
+      <c r="B1118" s="1" t="n">
+        <v>0.9829740838773148</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>0.00648</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>175</v>
+      </c>
+      <c r="B1119" s="1" t="n">
+        <v>0.9836620858333333</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>0.006240000000000001</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>176</v>
+      </c>
+      <c r="B1120" s="1" t="n">
+        <v>0.984357499224537</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>0.006240000000000001</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>178</v>
+      </c>
+      <c r="B1121" s="1" t="n">
+        <v>0.9857443891203704</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>179</v>
+      </c>
+      <c r="B1122" s="1" t="n">
+        <v>0.9864424805208334</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>180</v>
+      </c>
+      <c r="B1123" s="1" t="n">
+        <v>0.9871330823032408</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>0.005279999999999999</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>181</v>
+      </c>
+      <c r="B1124" s="1" t="n">
+        <v>0.9878294537152777</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>0.005279999999999999</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>182</v>
+      </c>
+      <c r="B1125" s="1" t="n">
+        <v>0.9885241178009259</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>0.00504</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>183</v>
+      </c>
+      <c r="B1126" s="1" t="n">
+        <v>0.9892155497916666</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>0.00456</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>186</v>
+      </c>
+      <c r="B1127" s="1" t="n">
+        <v>0.9912983746643519</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>0.0027</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>188</v>
+      </c>
+      <c r="B1128" s="1" t="n">
+        <v>0.9926863874652778</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>0.00234</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>189</v>
+      </c>
+      <c r="B1129" s="1" t="n">
+        <v>0.9933812019444445</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>0.00234</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>190</v>
+      </c>
+      <c r="B1130" s="1" t="n">
+        <v>0.9940741794675926</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>0.00216</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>191</v>
+      </c>
+      <c r="B1131" s="1" t="n">
+        <v>0.9947692242013889</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>0.00216</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>193</v>
+      </c>
+      <c r="B1132" s="1" t="n">
+        <v>0.9961560141898147</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>194</v>
+      </c>
+      <c r="B1133" s="1" t="n">
+        <v>0.9968506792939814</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>195</v>
+      </c>
+      <c r="B1134" s="1" t="n">
+        <v>0.9975443974884259</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>196</v>
+      </c>
+      <c r="B1135" s="1" t="n">
+        <v>0.9982387284722223</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>0.00162</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>198</v>
+      </c>
+      <c r="B1136" s="1" t="n">
+        <v>0.9996282299421296</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>96</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>0.00162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
